--- a/Documents/ActivityLog.xlsx
+++ b/Documents/ActivityLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Item No</t>
   </si>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>File is downloaded to a dedicated empty folder and the file name is extracted.</t>
+  </si>
+  <si>
+    <t>Extraction Error Exclusion Database Search</t>
+  </si>
+  <si>
+    <t>Extraction Error System For Award Management</t>
+  </si>
+  <si>
+    <t>Access not avaiable to: https://oig.hhs.gov/exclusions/downloadables/UPDATED.csv</t>
+  </si>
+  <si>
+    <t>Current path: https://www.sam.gov/SAM/extractfiledownload?role=WW&amp;version=EPLSPUB&amp;filename=SAM_Exclusions_Public_Extract_21152.ZIP -- Site path has changed, info required from DDAS team</t>
   </si>
 </sst>
 </file>
@@ -89,6 +101,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5257800" y="581025"/>
+          <a:ext cx="7419975" cy="2981325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,8 +489,25 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
